--- a/biology/Histoire de la zoologie et de la botanique/Charles_Otis_Whitman/Charles_Otis_Whitman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Otis_Whitman/Charles_Otis_Whitman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Otis Whitman est un zoologiste américain, né le 14 décembre 1842 à Woodstock (Maine) et mort le 6 décembre 1910.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur à l’université impériale du Japon (1880-1881) où quatre de ses étudiants deviendront les pionniers de la zoologie dans ce pays. Il poursuit ses recherches à la station zoologique de Naples (1882) avant de devenir assistant au Museum of Comparative Zoology à Harvard (1883-1885). Il dirige ensuite le laboratoire Allis Lake (Milwaukee) (1886-1889). Whitman y fonde le Journal of Morphology (1887).
 Il s’installe à l’université Clark à Worcester (Massachusetts) où il enseigne et dirige le muséum de zoologie de l’université de Chicago (1892-1910), en parallèle il est le fondateur et le directeur du Laboratoire de biologie marine (MBL) de Woods Hole (Massachusetts) (1888-1908).
@@ -550,9 +564,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1910 : Methods of research in microscopical anatomy and embryology[1] (Cassino, Boston).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1910 : Methods of research in microscopical anatomy and embryology (Cassino, Boston).</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Exemplaire numérique sur Internet Archive.
@@ -612,7 +630,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 13 mai 2007).
 William Homan Thorpe (1979). The Origins and Rise of Ethology, Praeger (New York) : ix + 174 p.  (ISBN 0435624415)</t>
